--- a/エフェクトリスト.xlsx
+++ b/エフェクトリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631FFDA-986A-4417-9363-D05EF76315A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B777B-5C09-4F91-9717-84A42521B5F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>エフェクト</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +151,17 @@
     <rPh sb="5" eb="6">
       <t>ケムリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘリの砂埃</t>
+    <rPh sb="3" eb="5">
+      <t>スナボコリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heli_storm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,6 +500,56 @@
         <a:xfrm>
           <a:off x="2936462" y="4705350"/>
           <a:ext cx="1178338" cy="1323976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130789</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>235323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2262152</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1826559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014DEB85-3F10-48B5-89E9-F408789BB1F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484024" y="6376147"/>
+          <a:ext cx="2131363" cy="1591236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.875" defaultRowHeight="87.75" customHeight="1"/>
@@ -838,11 +899,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87.75" customHeight="1">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:4" ht="156" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="87.75" customHeight="1">
       <c r="A7" s="2"/>
